--- a/internal/service/sekretariat/CustomerPBM.xlsx
+++ b/internal/service/sekretariat/CustomerPBM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\go\src\sekretariat\internal\service\sekretariat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29BD85-C349-41D4-BA62-29FDD21C35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3464BF0-F829-4AD0-8ADC-4E13EBC9349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="10200" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cust-PBM" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6274" uniqueCount="2303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6277" uniqueCount="2307">
   <si>
     <t>Penandatangan</t>
   </si>
@@ -3251,6 +3251,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0821-2116-8047</t>
     </r>
@@ -3273,6 +3274,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0812-8766-6195</t>
     </r>
@@ -3289,6 +3291,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0857-7611-1200</t>
     </r>
@@ -3380,6 +3383,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0878-8073-2547</t>
     </r>
@@ -3426,6 +3430,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0817-731-717</t>
     </r>
@@ -3520,6 +3525,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0878-8277-4388</t>
     </r>
@@ -6981,6 +6987,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 22/06/2025</t>
+  </si>
+  <si>
+    <t>PT. MITRA PERSADA INDAH, PT. Anugerah Sekawan Sentosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>525000 / 550000</t>
+  </si>
+  <si>
+    <t>1285000 / 1250000</t>
   </si>
 </sst>
 </file>
@@ -7005,29 +7023,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7038,6 +7061,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7048,6 +7072,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7115,7 +7140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7138,6 +7163,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7258,7 +7289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7454,7 +7485,7 @@
     <xf numFmtId="6" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7465,6 +7496,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -45531,19 +45568,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9818C87-7630-4CB8-9F29-625665DFB265}">
   <dimension ref="A1:S323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="34.5" customHeight="1"/>
   <cols>
-    <col min="4" max="5" width="30.42578125" style="64"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" style="64" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>1031</v>
+        <v>2304</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>1032</v>
@@ -45778,7 +45816,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="71" t="s">
         <v>898</v>
       </c>
       <c r="B5" s="42">
@@ -45896,7 +45934,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="71" t="s">
         <v>557</v>
       </c>
       <c r="B7" s="42">
@@ -46014,7 +46052,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="71" t="s">
         <v>854</v>
       </c>
       <c r="B9" s="42">
@@ -46073,7 +46111,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="71" t="s">
         <v>561</v>
       </c>
       <c r="B10" s="42">
@@ -46132,7 +46170,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="71" t="s">
         <v>521</v>
       </c>
       <c r="B11" s="42">
@@ -46191,7 +46229,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="71" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="42">
@@ -46250,7 +46288,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="71" t="s">
         <v>483</v>
       </c>
       <c r="B13" s="42">
@@ -46309,7 +46347,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="71" t="s">
         <v>648</v>
       </c>
       <c r="B14" s="42">
@@ -46368,7 +46406,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="71" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="42">
@@ -46486,7 +46524,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="71" t="s">
         <v>998</v>
       </c>
       <c r="B17" s="42">
@@ -46545,7 +46583,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="71" t="s">
         <v>572</v>
       </c>
       <c r="B18" s="42">
@@ -46604,7 +46642,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="71" t="s">
         <v>455</v>
       </c>
       <c r="B19" s="42">
@@ -46622,8 +46660,8 @@
       <c r="F19" s="42" t="s">
         <v>1826</v>
       </c>
-      <c r="G19" s="59">
-        <v>525000</v>
+      <c r="G19" s="59" t="s">
+        <v>2305</v>
       </c>
       <c r="H19" s="42">
         <v>3000</v>
@@ -46663,7 +46701,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="71" t="s">
         <v>597</v>
       </c>
       <c r="B20" s="42">
@@ -47076,7 +47114,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="71" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="42">
@@ -47253,7 +47291,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="71" t="s">
         <v>717</v>
       </c>
       <c r="B30" s="42">
@@ -47548,7 +47586,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="71" t="s">
         <v>568</v>
       </c>
       <c r="B35" s="42">
@@ -48315,7 +48353,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="42">
@@ -48608,7 +48646,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="71" t="s">
         <v>751</v>
       </c>
       <c r="B53" s="42">
@@ -48726,7 +48764,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="72" t="s">
         <v>1016</v>
       </c>
       <c r="B55" s="43">
@@ -48844,7 +48882,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="71" t="s">
         <v>231</v>
       </c>
       <c r="B57" s="42">
@@ -49039,8 +49077,8 @@
       <c r="F60" s="42" t="s">
         <v>1908</v>
       </c>
-      <c r="G60" s="59">
-        <v>1285000</v>
+      <c r="G60" s="59" t="s">
+        <v>2306</v>
       </c>
       <c r="H60" s="42">
         <v>3000</v>
@@ -49375,7 +49413,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="71" t="s">
         <v>931</v>
       </c>
       <c r="B66" s="42">
@@ -49493,7 +49531,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="71" t="s">
         <v>882</v>
       </c>
       <c r="B68" s="42">
@@ -49670,7 +49708,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="71" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="42">
@@ -49906,7 +49944,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="71" t="s">
         <v>527</v>
       </c>
       <c r="B75" s="42">
@@ -50083,7 +50121,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="71" t="s">
         <v>713</v>
       </c>
       <c r="B78" s="42">
@@ -50201,7 +50239,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="71" t="s">
         <v>895</v>
       </c>
       <c r="B80" s="42">
@@ -50437,7 +50475,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="71" t="s">
         <v>343</v>
       </c>
       <c r="B84" s="42">
@@ -50496,7 +50534,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="71" t="s">
         <v>746</v>
       </c>
       <c r="B85" s="42">
@@ -51027,7 +51065,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="71" t="s">
         <v>837</v>
       </c>
       <c r="B94" s="42">
@@ -51440,7 +51478,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A101" s="41" t="s">
+      <c r="A101" s="71" t="s">
         <v>141</v>
       </c>
       <c r="B101" s="42">
@@ -51499,7 +51537,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A102" s="41" t="s">
+      <c r="A102" s="71" t="s">
         <v>153</v>
       </c>
       <c r="B102" s="42">
@@ -51558,7 +51596,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="71" t="s">
         <v>75</v>
       </c>
       <c r="B103" s="42">
@@ -51676,7 +51714,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="71" t="s">
         <v>458</v>
       </c>
       <c r="B105" s="42">
@@ -51853,7 +51891,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="71" t="s">
         <v>295</v>
       </c>
       <c r="B108" s="42">
@@ -51912,7 +51950,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="71" t="s">
         <v>104</v>
       </c>
       <c r="B109" s="42">
@@ -52148,7 +52186,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A113" s="41" t="s">
+      <c r="A113" s="71" t="s">
         <v>841</v>
       </c>
       <c r="B113" s="42">
@@ -52443,7 +52481,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="71" t="s">
         <v>81</v>
       </c>
       <c r="B118" s="42">
@@ -52502,7 +52540,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="71" t="s">
         <v>427</v>
       </c>
       <c r="B119" s="42">
@@ -52561,7 +52599,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A120" s="41" t="s">
+      <c r="A120" s="71" t="s">
         <v>302</v>
       </c>
       <c r="B120" s="42">
@@ -52620,7 +52658,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="71" t="s">
         <v>675</v>
       </c>
       <c r="B121" s="42">
@@ -52738,8 +52776,8 @@
       </c>
     </row>
     <row r="123" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A123" s="41" t="s">
-        <v>666</v>
+      <c r="A123" s="71" t="s">
+        <v>2303</v>
       </c>
       <c r="B123" s="42">
         <v>1</v>
@@ -52797,7 +52835,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A124" s="41" t="s">
+      <c r="A124" s="71" t="s">
         <v>766</v>
       </c>
       <c r="B124" s="42">
@@ -53151,7 +53189,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="71" t="s">
         <v>823</v>
       </c>
       <c r="B130" s="42">
@@ -53387,7 +53425,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="71" t="s">
         <v>985</v>
       </c>
       <c r="B134" s="42">
@@ -53446,7 +53484,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A135" s="41" t="s">
+      <c r="A135" s="71" t="s">
         <v>773</v>
       </c>
       <c r="B135" s="42">
@@ -53505,7 +53543,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A136" s="41" t="s">
+      <c r="A136" s="71" t="s">
         <v>212</v>
       </c>
       <c r="B136" s="42">
@@ -53564,7 +53602,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A137" s="41" t="s">
+      <c r="A137" s="71" t="s">
         <v>773</v>
       </c>
       <c r="B137" s="42">
@@ -53582,8 +53620,8 @@
       <c r="F137" s="42" t="s">
         <v>1908</v>
       </c>
-      <c r="G137" s="59">
-        <v>1285000</v>
+      <c r="G137" s="59" t="s">
+        <v>2306</v>
       </c>
       <c r="H137" s="42">
         <v>3000</v>
@@ -53741,7 +53779,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A140" s="41" t="s">
+      <c r="A140" s="71" t="s">
         <v>268</v>
       </c>
       <c r="B140" s="42">
@@ -53859,7 +53897,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="71" t="s">
         <v>947</v>
       </c>
       <c r="B142" s="42">
@@ -53918,7 +53956,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="71" t="s">
         <v>305</v>
       </c>
       <c r="B143" s="42">
@@ -53977,7 +54015,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="71" t="s">
         <v>909</v>
       </c>
       <c r="B144" s="42">
@@ -54036,7 +54074,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A145" s="41" t="s">
+      <c r="A145" s="71" t="s">
         <v>256</v>
       </c>
       <c r="B145" s="42">
@@ -54272,7 +54310,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="71" t="s">
         <v>325</v>
       </c>
       <c r="B149" s="42">
@@ -54390,7 +54428,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A151" s="41" t="s">
+      <c r="A151" s="71" t="s">
         <v>762</v>
       </c>
       <c r="B151" s="42">
@@ -54449,7 +54487,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A152" s="41" t="s">
+      <c r="A152" s="71" t="s">
         <v>941</v>
       </c>
       <c r="B152" s="42">
@@ -54626,7 +54664,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A155" s="41" t="s">
+      <c r="A155" s="71" t="s">
         <v>725</v>
       </c>
       <c r="B155" s="42">
@@ -54685,7 +54723,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A156" s="41" t="s">
+      <c r="A156" s="71" t="s">
         <v>695</v>
       </c>
       <c r="B156" s="42">
@@ -54744,7 +54782,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="71" t="s">
         <v>740</v>
       </c>
       <c r="B157" s="42">
@@ -55039,7 +55077,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A162" s="41" t="s">
+      <c r="A162" s="71" t="s">
         <v>979</v>
       </c>
       <c r="B162" s="42">
@@ -55216,7 +55254,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A165" s="41" t="s">
+      <c r="A165" s="71" t="s">
         <v>160</v>
       </c>
       <c r="B165" s="42">
@@ -55334,7 +55372,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A167" s="41" t="s">
+      <c r="A167" s="71" t="s">
         <v>906</v>
       </c>
       <c r="B167" s="42">
@@ -55393,7 +55431,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A168" s="41" t="s">
+      <c r="A168" s="71" t="s">
         <v>717</v>
       </c>
       <c r="B168" s="42">
@@ -55511,7 +55549,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A170" s="41" t="s">
+      <c r="A170" s="71" t="s">
         <v>747</v>
       </c>
       <c r="B170" s="42">
@@ -55570,7 +55608,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A171" s="41" t="s">
+      <c r="A171" s="71" t="s">
         <v>755</v>
       </c>
       <c r="B171" s="42">
@@ -55688,7 +55726,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A173" s="41" t="s">
+      <c r="A173" s="71" t="s">
         <v>773</v>
       </c>
       <c r="B173" s="42">
@@ -55865,7 +55903,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A176" s="41" t="s">
+      <c r="A176" s="71" t="s">
         <v>510</v>
       </c>
       <c r="B176" s="42">
@@ -56101,7 +56139,7 @@
       </c>
     </row>
     <row r="180" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A180" s="41" t="s">
+      <c r="A180" s="71" t="s">
         <v>972</v>
       </c>
       <c r="B180" s="42">
@@ -56396,7 +56434,7 @@
       </c>
     </row>
     <row r="185" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A185" s="41" t="s">
+      <c r="A185" s="71" t="s">
         <v>721</v>
       </c>
       <c r="B185" s="42">
@@ -56573,7 +56611,7 @@
       </c>
     </row>
     <row r="188" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A188" s="41" t="s">
+      <c r="A188" s="71" t="s">
         <v>227</v>
       </c>
       <c r="B188" s="42">
@@ -56750,7 +56788,7 @@
       </c>
     </row>
     <row r="191" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="71" t="s">
         <v>729</v>
       </c>
       <c r="B191" s="42">
@@ -56986,7 +57024,7 @@
       </c>
     </row>
     <row r="195" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A195" s="41" t="s">
+      <c r="A195" s="71" t="s">
         <v>280</v>
       </c>
       <c r="B195" s="42">
@@ -57104,7 +57142,7 @@
       </c>
     </row>
     <row r="197" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A197" s="41" t="s">
+      <c r="A197" s="71" t="s">
         <v>70</v>
       </c>
       <c r="B197" s="42">
@@ -57163,7 +57201,7 @@
       </c>
     </row>
     <row r="198" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A198" s="41" t="s">
+      <c r="A198" s="71" t="s">
         <v>925</v>
       </c>
       <c r="B198" s="42">
@@ -57222,7 +57260,7 @@
       </c>
     </row>
     <row r="199" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A199" s="41" t="s">
+      <c r="A199" s="71" t="s">
         <v>332</v>
       </c>
       <c r="B199" s="42">
@@ -57281,7 +57319,7 @@
       </c>
     </row>
     <row r="200" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A200" s="41" t="s">
+      <c r="A200" s="71" t="s">
         <v>594</v>
       </c>
       <c r="B200" s="42">
@@ -57517,7 +57555,7 @@
       </c>
     </row>
     <row r="204" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A204" s="41" t="s">
+      <c r="A204" s="71" t="s">
         <v>405</v>
       </c>
       <c r="B204" s="42">
@@ -57930,7 +57968,7 @@
       </c>
     </row>
     <row r="211" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A211" s="41" t="s">
+      <c r="A211" s="71" t="s">
         <v>857</v>
       </c>
       <c r="B211" s="42">
@@ -58166,7 +58204,7 @@
       </c>
     </row>
     <row r="215" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A215" s="41" t="s">
+      <c r="A215" s="71" t="s">
         <v>620</v>
       </c>
       <c r="B215" s="42">
@@ -58461,7 +58499,7 @@
       </c>
     </row>
     <row r="220" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A220" s="41" t="s">
+      <c r="A220" s="71" t="s">
         <v>339</v>
       </c>
       <c r="B220" s="42">
@@ -58579,7 +58617,7 @@
       </c>
     </row>
     <row r="222" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A222" s="41" t="s">
+      <c r="A222" s="71" t="s">
         <v>814</v>
       </c>
       <c r="B222" s="42">
@@ -58638,7 +58676,7 @@
       </c>
     </row>
     <row r="223" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A223" s="41" t="s">
+      <c r="A223" s="71" t="s">
         <v>315</v>
       </c>
       <c r="B223" s="42">
@@ -58756,7 +58794,7 @@
       </c>
     </row>
     <row r="225" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A225" s="41" t="s">
+      <c r="A225" s="71" t="s">
         <v>462</v>
       </c>
       <c r="B225" s="42">
@@ -58933,7 +58971,7 @@
       </c>
     </row>
     <row r="228" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A228" s="41" t="s">
+      <c r="A228" s="71" t="s">
         <v>435</v>
       </c>
       <c r="B228" s="42">
@@ -59051,7 +59089,7 @@
       </c>
     </row>
     <row r="230" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A230" s="41" t="s">
+      <c r="A230" s="71" t="s">
         <v>553</v>
       </c>
       <c r="B230" s="42">
@@ -59110,7 +59148,7 @@
       </c>
     </row>
     <row r="231" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A231" s="41" t="s">
+      <c r="A231" s="71" t="s">
         <v>632</v>
       </c>
       <c r="B231" s="42">
@@ -59169,7 +59207,7 @@
       </c>
     </row>
     <row r="232" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A232" s="41" t="s">
+      <c r="A232" s="71" t="s">
         <v>322</v>
       </c>
       <c r="B232" s="42">
@@ -59228,7 +59266,7 @@
       </c>
     </row>
     <row r="233" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A233" s="41" t="s">
+      <c r="A233" s="71" t="s">
         <v>88</v>
       </c>
       <c r="B233" s="42">
@@ -59877,7 +59915,7 @@
       </c>
     </row>
     <row r="244" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A244" s="41" t="s">
+      <c r="A244" s="71" t="s">
         <v>190</v>
       </c>
       <c r="B244" s="42">
@@ -59936,7 +59974,7 @@
       </c>
     </row>
     <row r="245" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A245" s="41" t="s">
+      <c r="A245" s="71" t="s">
         <v>542</v>
       </c>
       <c r="B245" s="42">
@@ -59995,7 +60033,7 @@
       </c>
     </row>
     <row r="246" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A246" s="41" t="s">
+      <c r="A246" s="71" t="s">
         <v>366</v>
       </c>
       <c r="B246" s="42">
@@ -60172,7 +60210,7 @@
       </c>
     </row>
     <row r="249" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A249" s="41" t="s">
+      <c r="A249" s="71" t="s">
         <v>524</v>
       </c>
       <c r="B249" s="42">
@@ -60349,7 +60387,7 @@
       </c>
     </row>
     <row r="252" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A252" s="41" t="s">
+      <c r="A252" s="71" t="s">
         <v>545</v>
       </c>
       <c r="B252" s="42">
@@ -60408,7 +60446,7 @@
       </c>
     </row>
     <row r="253" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A253" s="41" t="s">
+      <c r="A253" s="71" t="s">
         <v>807</v>
       </c>
       <c r="B253" s="42">
@@ -60526,7 +60564,7 @@
       </c>
     </row>
     <row r="255" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A255" s="41" t="s">
+      <c r="A255" s="71" t="s">
         <v>636</v>
       </c>
       <c r="B255" s="42">
@@ -60644,7 +60682,7 @@
       </c>
     </row>
     <row r="257" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A257" s="41" t="s">
+      <c r="A257" s="71" t="s">
         <v>382</v>
       </c>
       <c r="B257" s="42">
@@ -60821,7 +60859,7 @@
       </c>
     </row>
     <row r="260" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A260" s="41" t="s">
+      <c r="A260" s="71" t="s">
         <v>545</v>
       </c>
       <c r="B260" s="42">
@@ -60880,7 +60918,7 @@
       </c>
     </row>
     <row r="261" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A261" s="41" t="s">
+      <c r="A261" s="71" t="s">
         <v>545</v>
       </c>
       <c r="B261" s="42">
@@ -60939,7 +60977,7 @@
       </c>
     </row>
     <row r="262" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A262" s="41" t="s">
+      <c r="A262" s="71" t="s">
         <v>829</v>
       </c>
       <c r="B262" s="42">
@@ -60998,7 +61036,7 @@
       </c>
     </row>
     <row r="263" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A263" s="41" t="s">
+      <c r="A263" s="71" t="s">
         <v>545</v>
       </c>
       <c r="B263" s="42">
@@ -61352,7 +61390,7 @@
       </c>
     </row>
     <row r="269" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A269" s="41" t="s">
+      <c r="A269" s="71" t="s">
         <v>145</v>
       </c>
       <c r="B269" s="42">
@@ -61529,7 +61567,7 @@
       </c>
     </row>
     <row r="272" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A272" s="41" t="s">
+      <c r="A272" s="71" t="s">
         <v>584</v>
       </c>
       <c r="B272" s="42">
@@ -61588,7 +61626,7 @@
       </c>
     </row>
     <row r="273" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A273" s="41" t="s">
+      <c r="A273" s="71" t="s">
         <v>393</v>
       </c>
       <c r="B273" s="42">
@@ -61883,7 +61921,7 @@
       </c>
     </row>
     <row r="278" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A278" s="41" t="s">
+      <c r="A278" s="71" t="s">
         <v>131</v>
       </c>
       <c r="B278" s="42">
@@ -62178,7 +62216,7 @@
       </c>
     </row>
     <row r="283" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A283" s="41" t="s">
+      <c r="A283" s="71" t="s">
         <v>468</v>
       </c>
       <c r="B283" s="42">
@@ -62237,7 +62275,7 @@
       </c>
     </row>
     <row r="284" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A284" s="41" t="s">
+      <c r="A284" s="71" t="s">
         <v>861</v>
       </c>
       <c r="B284" s="42">
@@ -62296,7 +62334,7 @@
       </c>
     </row>
     <row r="285" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A285" s="41" t="s">
+      <c r="A285" s="71" t="s">
         <v>951</v>
       </c>
       <c r="B285" s="42">
@@ -62414,7 +62452,7 @@
       </c>
     </row>
     <row r="287" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A287" s="55" t="s">
+      <c r="A287" s="72" t="s">
         <v>1013</v>
       </c>
       <c r="B287" s="43">
@@ -62591,7 +62629,7 @@
       </c>
     </row>
     <row r="290" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A290" s="55" t="s">
+      <c r="A290" s="72" t="s">
         <v>1018</v>
       </c>
       <c r="B290" s="43">
@@ -62650,7 +62688,7 @@
       </c>
     </row>
     <row r="291" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A291" s="41" t="s">
+      <c r="A291" s="71" t="s">
         <v>98</v>
       </c>
       <c r="B291" s="42">
@@ -62768,7 +62806,7 @@
       </c>
     </row>
     <row r="293" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A293" s="41" t="s">
+      <c r="A293" s="71" t="s">
         <v>37</v>
       </c>
       <c r="B293" s="42">
@@ -62886,7 +62924,7 @@
       </c>
     </row>
     <row r="295" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A295" s="55" t="s">
+      <c r="A295" s="72" t="s">
         <v>1027</v>
       </c>
       <c r="B295" s="43">
@@ -63004,7 +63042,7 @@
       </c>
     </row>
     <row r="297" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A297" s="41" t="s">
+      <c r="A297" s="71" t="s">
         <v>215</v>
       </c>
       <c r="B297" s="42">
@@ -63181,7 +63219,7 @@
       </c>
     </row>
     <row r="300" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A300" s="41" t="s">
+      <c r="A300" s="71" t="s">
         <v>335</v>
       </c>
       <c r="B300" s="42">
@@ -63240,7 +63278,7 @@
       </c>
     </row>
     <row r="301" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A301" s="41" t="s">
+      <c r="A301" s="71" t="s">
         <v>518</v>
       </c>
       <c r="B301" s="42">
@@ -63594,7 +63632,7 @@
       </c>
     </row>
     <row r="307" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A307" s="41" t="s">
+      <c r="A307" s="71" t="s">
         <v>274</v>
       </c>
       <c r="B307" s="42">
@@ -64184,7 +64222,7 @@
       </c>
     </row>
     <row r="317" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A317" s="41" t="s">
+      <c r="A317" s="71" t="s">
         <v>347</v>
       </c>
       <c r="B317" s="42">
@@ -64243,7 +64281,7 @@
       </c>
     </row>
     <row r="318" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A318" s="41" t="s">
+      <c r="A318" s="71" t="s">
         <v>919</v>
       </c>
       <c r="B318" s="42">
@@ -64302,7 +64340,7 @@
       </c>
     </row>
     <row r="319" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A319" s="41" t="s">
+      <c r="A319" s="71" t="s">
         <v>55</v>
       </c>
       <c r="B319" s="42">
@@ -64420,7 +64458,7 @@
       </c>
     </row>
     <row r="321" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A321" s="41" t="s">
+      <c r="A321" s="71" t="s">
         <v>890</v>
       </c>
       <c r="B321" s="42">
